--- a/history/+998999996971 - Oylik - 2024-02-27.xlsx
+++ b/history/+998999996971 - Oylik - 2024-02-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,34 +482,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2024-02-27</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>75 000</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>+998999996971</t>
-        </is>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
         <v>15000</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -517,106 +505,24 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2024-02-27</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>135 000</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>+998999996971</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>14</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2024-02-27</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>216 000</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>+998999996971</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>9</v>
-      </c>
-      <c r="F4" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>14</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2024-02-27</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>216 000</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>+998999996971</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" t="n">
-        <v>21000</v>
-      </c>
-      <c r="G5" t="n">
-        <v>6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>14</v>
-      </c>
-      <c r="I5" t="n">
         <v>2</v>
       </c>
     </row>
